--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_9_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1692086.712164325</v>
+        <v>1689691.056159144</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283197</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>56.52940853795829</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
-        <v>114.786904586944</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
         <v>94.24014755885155</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>153.0547621090609</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>54.31443144443453</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>222.1670476323163</v>
@@ -874,7 +874,7 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>29.83822926799431</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>99.1806943873993</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>169.9238494557839</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>206.2864326596779</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>61.59245739129852</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>298.0351528611659</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>41.00292043258637</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>227.2607025576523</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1376,10 +1376,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699795</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892458</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>45.16086499484882</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187844</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819384</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.06560892427407</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833703</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,10 +1856,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>36.43062059490413</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>102.15578456998</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2248,13 +2248,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892427719</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503951</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.0291980517616</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,7 +3721,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>1.594095449518727</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2203.392926076864</v>
+        <v>535.1642856087558</v>
       </c>
       <c r="C2" t="n">
-        <v>1834.430409136452</v>
+        <v>535.1642856087558</v>
       </c>
       <c r="D2" t="n">
-        <v>1476.164710529702</v>
+        <v>478.0638729441515</v>
       </c>
       <c r="E2" t="n">
-        <v>1090.376457931457</v>
+        <v>478.0638729441515</v>
       </c>
       <c r="F2" t="n">
-        <v>679.3905531418498</v>
+        <v>471.118372194948</v>
       </c>
       <c r="G2" t="n">
-        <v>262.9382918337243</v>
+        <v>458.7065149272266</v>
       </c>
       <c r="H2" t="n">
         <v>146.9919235640839</v>
@@ -4328,25 +4328,25 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>597.0574731482477</v>
       </c>
       <c r="L2" t="n">
-        <v>928.7179450719127</v>
+        <v>834.6802543664397</v>
       </c>
       <c r="M2" t="n">
-        <v>1569.741154691807</v>
+        <v>1130.750820924043</v>
       </c>
       <c r="N2" t="n">
-        <v>2012.324758216193</v>
+        <v>1436.225927159628</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532827</v>
+        <v>2077.249136779522</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2277.553464068625</v>
       </c>
       <c r="Q2" t="n">
         <v>2589.992766140986</v>
@@ -4355,25 +4355,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>1982.600918459332</v>
       </c>
       <c r="V2" t="n">
-        <v>2589.992766140986</v>
+        <v>1651.538031115761</v>
       </c>
       <c r="W2" t="n">
-        <v>2589.992766140986</v>
+        <v>1298.769375845647</v>
       </c>
       <c r="X2" t="n">
-        <v>2589.992766140986</v>
+        <v>925.3036175845675</v>
       </c>
       <c r="Y2" t="n">
-        <v>2589.992766140986</v>
+        <v>535.1642856087558</v>
       </c>
     </row>
     <row r="3">
@@ -4389,13 +4389,13 @@
         <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669847</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615291</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884142</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686807</v>
@@ -4410,22 +4410,22 @@
         <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202298</v>
+        <v>402.5242931591431</v>
       </c>
       <c r="L3" t="n">
-        <v>408.1293476730608</v>
+        <v>979.2471082623987</v>
       </c>
       <c r="M3" t="n">
-        <v>1049.152557292955</v>
+        <v>1620.270317882293</v>
       </c>
       <c r="N3" t="n">
-        <v>1408.378866136616</v>
+        <v>1905.604188315626</v>
       </c>
       <c r="O3" t="n">
-        <v>2037.107513972037</v>
+        <v>2144.409140067085</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4443,7 +4443,7 @@
         <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1787.954701028119</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
         <v>1533.717344299918</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.6898028207301</v>
+        <v>353.6365832845701</v>
       </c>
       <c r="C4" t="n">
-        <v>198.6898028207301</v>
+        <v>353.6365832845701</v>
       </c>
       <c r="D4" t="n">
-        <v>198.6898028207301</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="E4" t="n">
-        <v>198.6898028207301</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="F4" t="n">
-        <v>51.79985532281972</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>203.5199438722344</v>
       </c>
       <c r="H4" t="n">
         <v>51.79985532281972</v>
@@ -4513,25 +4513,25 @@
         <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1256.339247296037</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1031.928088071475</v>
+        <v>1086.791150136561</v>
       </c>
       <c r="U4" t="n">
-        <v>742.7914610635776</v>
+        <v>797.654523128663</v>
       </c>
       <c r="V4" t="n">
-        <v>488.1069728576907</v>
+        <v>797.654523128663</v>
       </c>
       <c r="W4" t="n">
-        <v>198.6898028207301</v>
+        <v>508.2373530917023</v>
       </c>
       <c r="X4" t="n">
-        <v>198.6898028207301</v>
+        <v>508.2373530917023</v>
       </c>
       <c r="Y4" t="n">
-        <v>198.6898028207301</v>
+        <v>508.2373530917023</v>
       </c>
     </row>
     <row r="5">
@@ -4541,46 +4541,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1616.991157897683</v>
+        <v>1164.039983044337</v>
       </c>
       <c r="C5" t="n">
-        <v>1248.028640957271</v>
+        <v>1164.039983044337</v>
       </c>
       <c r="D5" t="n">
-        <v>1248.028640957271</v>
+        <v>1164.039983044337</v>
       </c>
       <c r="E5" t="n">
-        <v>862.2403883590271</v>
+        <v>778.251730446093</v>
       </c>
       <c r="F5" t="n">
-        <v>451.2544835694195</v>
+        <v>771.3062296968895</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>355.6243878970215</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135514</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477392</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539972</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082062</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645557</v>
@@ -4604,13 +4604,13 @@
         <v>2003.590997961805</v>
       </c>
       <c r="W5" t="n">
-        <v>2003.590997961805</v>
+        <v>1650.822342691691</v>
       </c>
       <c r="X5" t="n">
-        <v>2003.590997961805</v>
+        <v>1550.639823108459</v>
       </c>
       <c r="Y5" t="n">
-        <v>2003.590997961805</v>
+        <v>1550.639823108459</v>
       </c>
     </row>
     <row r="6">
@@ -4629,16 +4629,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679670535677</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.145112562562</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
@@ -4647,25 +4647,25 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>688.5974568552863</v>
+        <v>426.7768722128336</v>
       </c>
       <c r="L6" t="n">
-        <v>985.909405971601</v>
+        <v>724.0888213291483</v>
       </c>
       <c r="M6" t="n">
-        <v>1352.215295463926</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N6" t="n">
-        <v>1742.624856789669</v>
+        <v>1627.746635452984</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.7657712454554</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="C7" t="n">
-        <v>349.8295883175485</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="D7" t="n">
-        <v>199.7129489052128</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="E7" t="n">
-        <v>51.79985532281972</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F7" t="n">
         <v>51.79985532281972</v>
@@ -4747,28 +4747,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1373.222055935365</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>1373.222055935365</v>
       </c>
       <c r="V7" t="n">
-        <v>1438.613536154203</v>
+        <v>1118.537567729478</v>
       </c>
       <c r="W7" t="n">
-        <v>1149.196366117243</v>
+        <v>829.1203976925173</v>
       </c>
       <c r="X7" t="n">
-        <v>921.2068152192253</v>
+        <v>601.1308467944999</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.4142360756952</v>
+        <v>380.3382676509698</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1087.019180569858</v>
+        <v>1264.222502627569</v>
       </c>
       <c r="C8" t="n">
-        <v>718.0566636294463</v>
+        <v>1264.222502627569</v>
       </c>
       <c r="D8" t="n">
-        <v>359.7909650226958</v>
+        <v>905.9568040208185</v>
       </c>
       <c r="E8" t="n">
-        <v>359.7909650226958</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F8" t="n">
-        <v>352.8454642734924</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>51.79985532281972</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
@@ -4805,13 +4805,13 @@
         <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135518</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4829,25 +4829,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140986</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>2589.992766140986</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140986</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="W8" t="n">
-        <v>2237.224110870871</v>
+        <v>1650.822342691691</v>
       </c>
       <c r="X8" t="n">
-        <v>1863.758352609791</v>
+        <v>1650.822342691691</v>
       </c>
       <c r="Y8" t="n">
-        <v>1473.61902063398</v>
+        <v>1650.822342691691</v>
       </c>
     </row>
     <row r="9">
@@ -4881,13 +4881,13 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K9" t="n">
-        <v>426.7768722128335</v>
+        <v>563.7673318682815</v>
       </c>
       <c r="L9" t="n">
-        <v>1067.800081832727</v>
+        <v>861.0792809845962</v>
       </c>
       <c r="M9" t="n">
         <v>1470.397510810264</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>685.7188138990833</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="C10" t="n">
-        <v>516.7826309711764</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D10" t="n">
-        <v>366.6659915588407</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E10" t="n">
-        <v>366.6659915588407</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F10" t="n">
-        <v>219.7760440609304</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
         <v>51.79985532281972</v>
@@ -4987,25 +4987,25 @@
         <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>938.4816527122262</v>
       </c>
       <c r="V10" t="n">
-        <v>1605.566578807831</v>
+        <v>683.7971645063393</v>
       </c>
       <c r="W10" t="n">
-        <v>1316.14940877087</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="X10" t="n">
-        <v>1088.159857872853</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="Y10" t="n">
-        <v>867.3672787293231</v>
+        <v>233.4483201530594</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703794</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969311</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y13" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.388077746847</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143764</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400635</v>
+        <v>513.8536007400701</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121566</v>
+        <v>344.9174178121632</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5449,37 +5449,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279794</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853353</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580253</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832655</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487559</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510501</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854698</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648811</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611851</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138333</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703032</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>344.917417812163</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297698</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="20">
@@ -5741,28 +5741,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,28 +5771,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5841,16 +5841,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400667</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121598</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121598</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121598</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121598</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270397</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5929,31 +5929,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138365</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6005,22 +6005,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,28 +6303,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6458,22 +6458,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397185</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>924.8344286397185</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>1552.432392194325</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2104.342122433613</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2527.965271928681</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,22 +6947,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,31 +7008,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400695</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703092</v>
       </c>
     </row>
     <row r="38">
@@ -7151,31 +7151,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332388</v>
@@ -7187,34 +7187,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,25 +7245,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>184.7035232280583</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>184.7035232280583</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>680.0291294438171</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C40" t="n">
-        <v>632.7243904253734</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D40" t="n">
-        <v>632.7243904253734</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832667</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487572</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510513</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854711</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648824</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W40" t="n">
-        <v>1432.091168225067</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X40" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y40" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="41">
@@ -7391,34 +7391,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7427,10 +7427,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="44">
@@ -7637,13 +7637,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7728,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7976,28 +7976,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>143.390998662501</v>
       </c>
       <c r="L2" t="n">
-        <v>407.4751802037393</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942333</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>138.4934316048494</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>369.6030205083429</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
         <v>26.19461818159724</v>
@@ -8058,25 +8058,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>206.0462815544579</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660669</v>
+        <v>380.8926041660668</v>
       </c>
       <c r="N3" t="n">
-        <v>74.6388266770993</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,28 +8295,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>148.4266296017854</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>119.375975097311</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.1843750390658</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>347.1830914177568</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>36.65812069213291</v>
+        <v>245.4670104377199</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>-1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -11072,7 +11072,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>46.45968844823281</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>180.5487903941883</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393828</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,13 +23665,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>65.54986409393182</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>110.003342051665</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>43.26526345295126</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631857025</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219467</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>43.26526345294944</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,19 +24604,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>46.45968844823271</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405072</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,7 +25609,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>284.9289028870723</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393204</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441176</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>893350.7553441175</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441176</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>893350.7553441176</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441176</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>893350.7553441178</v>
+        <v>893350.7553441179</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441176</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>893350.7553441179</v>
+        <v>893350.7553441178</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117843</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.150411784</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117842</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117841</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117838</v>
-      </c>
       <c r="E2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="G2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="H2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="I2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="L2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="L2" t="n">
-        <v>524645.2897985039</v>
-      </c>
-      <c r="M2" t="n">
-        <v>524645.2897985039</v>
-      </c>
       <c r="N2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
         <v>524645.2897985039</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
     </row>
     <row r="3">
@@ -26366,31 +26366,31 @@
         <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898924</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457505</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260481</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
+        <v>129066.7547252479</v>
+      </c>
+      <c r="D4" t="n">
         <v>129066.754725248</v>
-      </c>
-      <c r="D4" t="n">
-        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
@@ -26430,19 +26430,19 @@
         <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695046</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695056</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695024</v>
+        <v>6287.480531695059</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
@@ -26454,7 +26454,7 @@
         <v>6287.480531695051</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695055</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-655136.6991757652</v>
+        <v>-655136.699175765</v>
       </c>
       <c r="C6" t="n">
-        <v>138364.9465351342</v>
+        <v>138364.946535134</v>
       </c>
       <c r="D6" t="n">
-        <v>311129.3063250263</v>
+        <v>311129.3063250266</v>
       </c>
       <c r="E6" t="n">
-        <v>-83653.58830284885</v>
+        <v>-83688.32622828464</v>
       </c>
       <c r="F6" t="n">
-        <v>417235.2794429017</v>
+        <v>417200.541517466</v>
       </c>
       <c r="G6" t="n">
-        <v>417235.2794429015</v>
+        <v>417200.5415174661</v>
       </c>
       <c r="H6" t="n">
-        <v>417235.2794429018</v>
+        <v>417200.541517466</v>
       </c>
       <c r="I6" t="n">
-        <v>417235.2794429018</v>
+        <v>417200.5415174657</v>
       </c>
       <c r="J6" t="n">
-        <v>247821.2626168537</v>
+        <v>247786.5246914182</v>
       </c>
       <c r="K6" t="n">
-        <v>417235.2794429017</v>
+        <v>417200.541517466</v>
       </c>
       <c r="L6" t="n">
-        <v>417235.2794429017</v>
+        <v>417200.5415174662</v>
       </c>
       <c r="M6" t="n">
-        <v>286350.8225386665</v>
+        <v>286316.0846132308</v>
       </c>
       <c r="N6" t="n">
-        <v>417235.2794429017</v>
+        <v>417200.5415174661</v>
       </c>
       <c r="O6" t="n">
-        <v>417235.2794429017</v>
+        <v>417200.541517466</v>
       </c>
       <c r="P6" t="n">
-        <v>417235.279442902</v>
+        <v>417200.5415174661</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498445</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26960,31 +26960,31 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522338</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.269109691829</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644015</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352466</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644017</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644015</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>298.1536330827247</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>193.8105408625673</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>26.77721807287639</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>114.7793764994862</v>
@@ -27585,7 +27585,7 @@
         <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>146.1330929268669</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>381.686794113875</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>270.5504062910697</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,16 +27774,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>50.78137925765455</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>45.85121066415013</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>320.3379126809633</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>113.4898705207034</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
         <v>147.161060211447</v>
@@ -28059,22 +28059,22 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>211.1347228912416</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>59.26229577893875</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.273736754432321e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-1.131184035330079e-12</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28521,7 +28521,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>-7.541226902200529e-12</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -28576,10 +28576,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-4.713266813875332e-12</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-4.524736141320318e-12</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30210,7 +30210,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30417,13 +30417,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>-2.163473208342858e-13</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30657,7 +30657,7 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31288,37 +31288,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31361,7 +31361,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31382,19 +31382,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31440,25 +31440,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,40 +31835,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>145.7021085929663</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338212</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>391.9250669264629</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32312,25 +32312,25 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>545.3845241768652</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32561,10 +32561,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>426.9501404413636</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>194.5189324111248</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>707.690770008913</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>165.3312853305614</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>502.5232631188761</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>463.9598929192557</v>
+        <v>290.6810969936921</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>218.6425359394812</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34448,10 +34448,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>306.820303778658</v>
       </c>
       <c r="L2" t="n">
+        <v>240.0230113315071</v>
+      </c>
+      <c r="M2" t="n">
+        <v>299.0611783410131</v>
+      </c>
+      <c r="N2" t="n">
+        <v>308.5607133692782</v>
+      </c>
+      <c r="O2" t="n">
         <v>647.4981915352464</v>
-      </c>
-      <c r="M2" t="n">
-        <v>647.4981915352464</v>
-      </c>
-      <c r="N2" t="n">
-        <v>447.0541449741276</v>
-      </c>
-      <c r="O2" t="n">
-        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
         <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151797</v>
+        <v>328.695869706255</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
         <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>362.8548574178398</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527188</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35015,28 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057227</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>518.4325785839322</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>457.6877737998677</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
         <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297622</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225504</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35100,10 +35100,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35112,7 +35112,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171352</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
-        <v>647.4981915352464</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>406.6640696742798</v>
+        <v>615.4729594198668</v>
       </c>
       <c r="N9" t="n">
         <v>394.3530922482246</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>18.86448192629965</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394707</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121327</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060378</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
         <v>479.454324036777</v>
@@ -35899,7 +35899,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>406.830144396991</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899057</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060454</v>
@@ -36209,10 +36209,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>295.6084283580303</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36297,7 +36297,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,7 +36671,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>576.3490579255797</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>25.34951124453992</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>368.5488557045459</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>332.6181808359224</v>
+        <v>159.3393849103587</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>91.80490927281448</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572999025</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37935,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38096,10 +38096,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
